--- a/Data/Data_Extracted_Main.xlsx
+++ b/Data/Data_Extracted_Main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT_Knights_DataExtract_1.0\Knights\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858B09A6-9373-4E5F-95A7-F811CF663C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4836DFED-08A9-4FAC-8A36-D9F03F21FDBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="15" windowWidth="15330" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Case Reference</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>Fees</t>
+  </si>
+  <si>
+    <t>CON/2042/19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 32 Northolt Avenue Parkside Chase Cramlington Northumberland NE23 1RJ</t>
   </si>
 </sst>
 </file>
@@ -390,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,6 +467,14 @@
         <v>15</v>
       </c>
     </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Data_Extracted_Main.xlsx
+++ b/Data/Data_Extracted_Main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT_Knights_DataExtract_1.0\Knights\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4836DFED-08A9-4FAC-8A36-D9F03F21FDBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0006532C-B26E-487C-975F-39E1FA836E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="15" windowWidth="15330" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Case Reference</t>
   </si>
@@ -66,19 +66,73 @@
     <t>Tenure of the Property</t>
   </si>
   <si>
-    <t>Referral and Referral fee if any-</t>
-  </si>
-  <si>
-    <t>Parties</t>
-  </si>
-  <si>
     <t>Fees</t>
   </si>
   <si>
     <t>CON/2042/19</t>
   </si>
   <si>
-    <t xml:space="preserve"> 32 Northolt Avenue Parkside Chase Cramlington Northumberland NE23 1RJ</t>
+    <t>Seller1Name</t>
+  </si>
+  <si>
+    <t>Seller1 Gender</t>
+  </si>
+  <si>
+    <t>Seller2Name</t>
+  </si>
+  <si>
+    <t>Seller2 Gender</t>
+  </si>
+  <si>
+    <t>Seller Address</t>
+  </si>
+  <si>
+    <t>Seller Email</t>
+  </si>
+  <si>
+    <t>Seller Phone</t>
+  </si>
+  <si>
+    <t>SellerSolicitor_Reference_Name</t>
+  </si>
+  <si>
+    <t>SellerSolicitor_Trading_Name</t>
+  </si>
+  <si>
+    <t>SellerSolicitor_LegalOwner_Name</t>
+  </si>
+  <si>
+    <t>SellerSolicitor_Phone</t>
+  </si>
+  <si>
+    <t>SellerSolicitor_Email</t>
+  </si>
+  <si>
+    <t>SellerSolicitor_Address</t>
+  </si>
+  <si>
+    <t>Estate_Reference_Name</t>
+  </si>
+  <si>
+    <t>Estate_Trading_Name</t>
+  </si>
+  <si>
+    <t>Estate_LegalOwner_Name</t>
+  </si>
+  <si>
+    <t>Estate_Phone</t>
+  </si>
+  <si>
+    <t>Estate_Email</t>
+  </si>
+  <si>
+    <t>Estate_Address</t>
+  </si>
+  <si>
+    <t>Referral and Referral fee</t>
+  </si>
+  <si>
+    <t>CON/4455/20</t>
   </si>
 </sst>
 </file>
@@ -396,28 +450,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:AH3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.42578125" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="66.140625" customWidth="1"/>
+    <col min="4" max="4" width="76.7109375" customWidth="1"/>
+    <col min="5" max="5" width="41.28515625" customWidth="1"/>
+    <col min="6" max="6" width="41.5703125" customWidth="1"/>
+    <col min="7" max="7" width="56" customWidth="1"/>
+    <col min="8" max="8" width="44" customWidth="1"/>
     <col min="9" max="9" width="31.42578125" customWidth="1"/>
     <col min="10" max="10" width="18.7109375" customWidth="1"/>
     <col min="11" max="11" width="24" customWidth="1"/>
     <col min="12" max="12" width="21.5703125" customWidth="1"/>
     <col min="13" max="13" width="26.7109375" customWidth="1"/>
     <col min="14" max="14" width="17.42578125" customWidth="1"/>
+    <col min="15" max="15" width="41.140625" customWidth="1"/>
+    <col min="16" max="16" width="43.28515625" customWidth="1"/>
+    <col min="17" max="17" width="43.140625" customWidth="1"/>
+    <col min="18" max="18" width="27.42578125" customWidth="1"/>
+    <col min="19" max="19" width="37.28515625" customWidth="1"/>
+    <col min="20" max="20" width="34.7109375" customWidth="1"/>
+    <col min="21" max="21" width="39.85546875" customWidth="1"/>
+    <col min="22" max="22" width="57" customWidth="1"/>
+    <col min="23" max="23" width="51.7109375" customWidth="1"/>
+    <col min="24" max="24" width="30" customWidth="1"/>
+    <col min="25" max="25" width="42.28515625" customWidth="1"/>
+    <col min="26" max="26" width="59.28515625" customWidth="1"/>
+    <col min="27" max="27" width="28" customWidth="1"/>
+    <col min="28" max="28" width="20.7109375" customWidth="1"/>
+    <col min="29" max="29" width="25.85546875" customWidth="1"/>
+    <col min="30" max="30" width="16" customWidth="1"/>
+    <col min="31" max="31" width="26" customWidth="1"/>
+    <col min="32" max="32" width="33.42578125" customWidth="1"/>
+    <col min="33" max="33" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -428,51 +504,107 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="AH1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Data_Extracted_Main.xlsx
+++ b/Data/Data_Extracted_Main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT_Knights_DataExtract_1.0\Knights\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0006532C-B26E-487C-975F-39E1FA836E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694EA6F1-6D8B-40D7-A036-7EFB04CBB0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="15" windowWidth="15330" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="77">
   <si>
     <t>Case Reference</t>
   </si>
   <si>
-    <t>Clients Name</t>
-  </si>
-  <si>
     <t>Clients Correspondinig Address</t>
   </si>
   <si>
@@ -51,18 +48,12 @@
     <t>Branch</t>
   </si>
   <si>
-    <t>Client(s) gender (Male/Female)</t>
-  </si>
-  <si>
     <t>Client(s) Mobile Number</t>
   </si>
   <si>
     <t>Client(s) email address</t>
   </si>
   <si>
-    <t>Clients(s) date of birth</t>
-  </si>
-  <si>
     <t>Tenure of the Property</t>
   </si>
   <si>
@@ -133,6 +124,138 @@
   </si>
   <si>
     <t>CON/4455/20</t>
+  </si>
+  <si>
+    <t>Client(1) gender (Male/Female)</t>
+  </si>
+  <si>
+    <t>Clients(1) date of birth</t>
+  </si>
+  <si>
+    <t>Clients(2) date of birth</t>
+  </si>
+  <si>
+    <t>Client(2) gender (Male/Female)</t>
+  </si>
+  <si>
+    <t>Clients(1)Name</t>
+  </si>
+  <si>
+    <t>Clients(2)Name</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mark Lynn </t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Mr Geoffrey Mark Taylor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9 Lancaster Road Hartlepool TS24 8LN</t>
+  </si>
+  <si>
+    <t>mark@sevenspokes.co.uk</t>
+  </si>
+  <si>
+    <t>Ms Adriane Elizabeth Adler</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rukhsanah Haroon </t>
+  </si>
+  <si>
+    <t>QualitySolicitors Smith Roddam</t>
+  </si>
+  <si>
+    <t>reception@smith-roddam.co.uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 56 North Bondgate Bishop Auckland DL14 7PG</t>
+  </si>
+  <si>
+    <t>The Agents Property Auction Limited</t>
+  </si>
+  <si>
+    <t>01661 831360</t>
+  </si>
+  <si>
+    <t>nicola@agentspropertyauction.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14a Front Street Prudhoe NE42 5HN</t>
+  </si>
+  <si>
+    <t>The Vicarage  North Road East Wingate   TS28 5BW</t>
+  </si>
+  <si>
+    <t>Ms Serena Louise Taylor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 32 Northolt Avenue CRAMLINGTON NE23 1RJ</t>
+  </si>
+  <si>
+    <t>serenataylor11@icloud.com</t>
+  </si>
+  <si>
+    <t>16/01/1977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jessica  Bainbridge </t>
+  </si>
+  <si>
+    <t>Mr John Thomas Dominic Morgan</t>
+  </si>
+  <si>
+    <t>Mrs Stephanie Victoria Morgan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7 Taunton Place CRAMLINGTON NE23 1PU</t>
+  </si>
+  <si>
+    <t>2019/KR/0719</t>
+  </si>
+  <si>
+    <t>Toomey Legal Limited</t>
+  </si>
+  <si>
+    <t>sue@toomeylegal.co.uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Blagdon Terrace CRAMLINGTON NE23 1DN</t>
+  </si>
+  <si>
+    <t>Renown Estate Agents</t>
+  </si>
+  <si>
+    <t>Denise.ackroyd@renownestates.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Smithy Square CRAMLINGTON NE23 6QL</t>
+  </si>
+  <si>
+    <t>Leasehold</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 32 Northolt Avenue Parkside Chase Cramlington Northumberland NE23 1RJ</t>
+  </si>
+  <si>
+    <t>/0013/17</t>
+  </si>
+  <si>
+    <t>Ms Lisa Edwards</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 59 Spring Gardens HULL HU4 7QQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Andrew Carser </t>
   </si>
 </sst>
 </file>
@@ -450,16 +573,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:AK4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="37" customWidth="1"/>
     <col min="3" max="3" width="66.140625" customWidth="1"/>
     <col min="4" max="4" width="76.7109375" customWidth="1"/>
     <col min="5" max="5" width="41.28515625" customWidth="1"/>
@@ -467,7 +590,7 @@
     <col min="7" max="7" width="56" customWidth="1"/>
     <col min="8" max="8" width="44" customWidth="1"/>
     <col min="9" max="9" width="31.42578125" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" customWidth="1"/>
     <col min="11" max="11" width="24" customWidth="1"/>
     <col min="12" max="12" width="21.5703125" customWidth="1"/>
     <col min="13" max="13" width="26.7109375" customWidth="1"/>
@@ -493,118 +616,288 @@
     <col min="33" max="33" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="AK1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R1" t="s">
-        <v>25</v>
-      </c>
-      <c r="S1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T1" t="s">
-        <v>27</v>
-      </c>
-      <c r="U1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V1" t="s">
-        <v>29</v>
-      </c>
-      <c r="W1" t="s">
-        <v>30</v>
-      </c>
-      <c r="X1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y1" t="s">
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" t="s">
+        <v>63</v>
+      </c>
+      <c r="R2" t="s">
+        <v>64</v>
+      </c>
+      <c r="S2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U2">
+        <v>1670293333</v>
+      </c>
+      <c r="V2" t="s">
+        <v>66</v>
+      </c>
+      <c r="W2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK2">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>32</v>
       </c>
-      <c r="Z1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>13</v>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3">
+        <v>7974119819</v>
+      </c>
+      <c r="F3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V3" t="s">
+        <v>48</v>
+      </c>
+      <c r="W3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>35</v>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Data_Extracted_Main.xlsx
+++ b/Data/Data_Extracted_Main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT_Knights_DataExtract_1.0\Knights\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694EA6F1-6D8B-40D7-A036-7EFB04CBB0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5E6879-7A47-4856-AAEC-FF5AD33A280D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="15" windowWidth="15330" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="151">
   <si>
     <t>Case Reference</t>
   </si>
@@ -256,6 +256,228 @@
   </si>
   <si>
     <t xml:space="preserve"> Andrew Carser </t>
+  </si>
+  <si>
+    <t>Mr Joe Bloggs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1711 Leek Road STOKE-ON-TRENT ST2 7AA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1711 Leek Road  Stoke on Trent  ST2 7AA</t>
+  </si>
+  <si>
+    <t>CMP/0643/18</t>
+  </si>
+  <si>
+    <t>Mr Peter Robinson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Keel Square Sunderland SR1 3HA</t>
+  </si>
+  <si>
+    <t>07702 091434</t>
+  </si>
+  <si>
+    <t>Peter.robinson@hays-travel.co.uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Martin Wilson </t>
+  </si>
+  <si>
+    <t>CON/0032/17</t>
+  </si>
+  <si>
+    <t>Mr Matt Holbrook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Sir Bobby Robson Way NEWCASTLE UPON TYNE NE13 9BA</t>
+  </si>
+  <si>
+    <t>matt@holbrix.com</t>
+  </si>
+  <si>
+    <t>Mr Graeme Leslie Bond</t>
+  </si>
+  <si>
+    <t>Mrs Karyn Bond</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 32 Station Road Stannington NE61 6DX</t>
+  </si>
+  <si>
+    <t>GF/GS/NOWLAND/N1155/1</t>
+  </si>
+  <si>
+    <t>Yarwood and Stubley</t>
+  </si>
+  <si>
+    <t>01670 361211</t>
+  </si>
+  <si>
+    <t>secretaries@yarwoodstubley.co.uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15 Stanley Street Blyth NE24 2BT</t>
+  </si>
+  <si>
+    <t>Rickard</t>
+  </si>
+  <si>
+    <t>01670 513533</t>
+  </si>
+  <si>
+    <t>morpeth@rickard.uk.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25 Newgate Street Morpeth NE61 1AW</t>
+  </si>
+  <si>
+    <t>Freehold</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 32 Station Road Stannington Morpeth Northumberland NE61 6DX</t>
+  </si>
+  <si>
+    <t>CON/0052/17</t>
+  </si>
+  <si>
+    <t>Mrs Kirstie Leanne Dunn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3 Allendale Place Tynemouth NE30 4RA</t>
+  </si>
+  <si>
+    <t>info@thenakeddeli.co.uk</t>
+  </si>
+  <si>
+    <t>30/07/1980</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tina Shaw </t>
+  </si>
+  <si>
+    <t>Mason Owen Property Consultants</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11 Union Court Liverpool L2 4UQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3 Allendale Place   Tynemouth   NE30 4RA </t>
+  </si>
+  <si>
+    <t>CON/0055/17</t>
+  </si>
+  <si>
+    <t>Mrs Margaret Ann Mukherjee</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6 Warwick Road ALTRINCHAM WA15 9NS</t>
+  </si>
+  <si>
+    <t>02076471721/01619417176</t>
+  </si>
+  <si>
+    <t>annicemukherjee@hotmail.com</t>
+  </si>
+  <si>
+    <t>15/04/1939</t>
+  </si>
+  <si>
+    <t>Mr Jamie Hignett</t>
+  </si>
+  <si>
+    <t>Mrs Danielle Hignett</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>DFB SR 126877/3/6 HIGETT</t>
+  </si>
+  <si>
+    <t>Bannister Preston Solicitors</t>
+  </si>
+  <si>
+    <t>0161 775 0444</t>
+  </si>
+  <si>
+    <t>dbeard@bannisterprestonirlam.co.uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 180 Liverpool Road MANCHESTER M44 6FE</t>
+  </si>
+  <si>
+    <t>Jordan Fishwick</t>
+  </si>
+  <si>
+    <t>hale@jordanfishwick.co.uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 172 Ashley Road ALTRINCHAM WA15 9SF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30  York Road  Bowden  Altrincham  WA14 3EF </t>
+  </si>
+  <si>
+    <t>CON/0057/17</t>
+  </si>
+  <si>
+    <t>Mr Scott Alexander Dodds</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 50 Hazeldene Whitley Bay NE25 9AL</t>
+  </si>
+  <si>
+    <t>scottyadodds@hotmail.com</t>
+  </si>
+  <si>
+    <t>Mrs Shirley Trainer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16 Willow Avenue Blyth NE24 1PG</t>
+  </si>
+  <si>
+    <t>105036.001 TM DT</t>
+  </si>
+  <si>
+    <t>Hadaway &amp; Hadaway</t>
+  </si>
+  <si>
+    <t>karenh@hadaway.co.uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 58 Howard Street North Shields NE30 1AL</t>
+  </si>
+  <si>
+    <t>Pattinsons Estate Agents Blyth</t>
+  </si>
+  <si>
+    <t>Terri.Bell@Pattinson.co.uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 76 Waterloo Road BLYTH NE24 1DG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 86  Plessey Road   Blyth  Northumberland  NE24 3HX </t>
+  </si>
+  <si>
+    <t>CON/0071/17</t>
+  </si>
+  <si>
+    <t>Mr David Westerby</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4 Alderwood Crescent NEWCASTLE UPON TYNE NE6 4TT</t>
+  </si>
+  <si>
+    <t>junbewespa@aol.com</t>
+  </si>
+  <si>
+    <t>Ms Karen Block</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 50 Malling Road SNODLAND ME6 5NA</t>
   </si>
 </sst>
 </file>
@@ -573,10 +795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK4"/>
+  <dimension ref="A1:AK10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -890,14 +1112,413 @@
       <c r="H4" t="s">
         <v>59</v>
       </c>
+      <c r="K4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>78</v>
+      </c>
       <c r="AD4" t="s">
         <v>76</v>
       </c>
       <c r="AF4" t="s">
         <v>76</v>
       </c>
+      <c r="AJ4" t="s">
+        <v>79</v>
+      </c>
       <c r="AK4">
         <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" t="s">
+        <v>90</v>
+      </c>
+      <c r="L6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" t="s">
+        <v>91</v>
+      </c>
+      <c r="N6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" t="s">
+        <v>92</v>
+      </c>
+      <c r="R6" t="s">
+        <v>93</v>
+      </c>
+      <c r="S6" t="s">
+        <v>94</v>
+      </c>
+      <c r="T6" t="s">
+        <v>94</v>
+      </c>
+      <c r="U6" t="s">
+        <v>95</v>
+      </c>
+      <c r="V6" t="s">
+        <v>96</v>
+      </c>
+      <c r="W6" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK6">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7">
+        <v>7568311682</v>
+      </c>
+      <c r="F7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK7">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G8" t="s">
+        <v>118</v>
+      </c>
+      <c r="H8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" t="s">
+        <v>119</v>
+      </c>
+      <c r="L8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" t="s">
+        <v>120</v>
+      </c>
+      <c r="N8" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" t="s">
+        <v>121</v>
+      </c>
+      <c r="R8" t="s">
+        <v>122</v>
+      </c>
+      <c r="S8" t="s">
+        <v>123</v>
+      </c>
+      <c r="T8" t="s">
+        <v>123</v>
+      </c>
+      <c r="U8" t="s">
+        <v>124</v>
+      </c>
+      <c r="V8" t="s">
+        <v>125</v>
+      </c>
+      <c r="W8" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA8">
+        <v>1619299797</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK8">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9">
+        <v>1912801281</v>
+      </c>
+      <c r="F9" t="s">
+        <v>134</v>
+      </c>
+      <c r="H9" t="s">
+        <v>132</v>
+      </c>
+      <c r="I9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" t="s">
+        <v>135</v>
+      </c>
+      <c r="L9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" t="s">
+        <v>59</v>
+      </c>
+      <c r="O9" t="s">
+        <v>136</v>
+      </c>
+      <c r="R9" t="s">
+        <v>137</v>
+      </c>
+      <c r="S9" t="s">
+        <v>138</v>
+      </c>
+      <c r="T9" t="s">
+        <v>138</v>
+      </c>
+      <c r="U9">
+        <v>1912570382</v>
+      </c>
+      <c r="V9" t="s">
+        <v>139</v>
+      </c>
+      <c r="W9" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>144</v>
+      </c>
+      <c r="AK9">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10">
+        <v>7985111165</v>
+      </c>
+      <c r="F10" t="s">
+        <v>148</v>
+      </c>
+      <c r="H10" t="s">
+        <v>146</v>
+      </c>
+      <c r="I10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" t="s">
+        <v>149</v>
+      </c>
+      <c r="L10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" t="s">
+        <v>59</v>
+      </c>
+      <c r="O10" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK10">
+        <v>480</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Data_Extracted_Main.xlsx
+++ b/Data/Data_Extracted_Main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT_Knights_DataExtract_1.0\Knights\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5E6879-7A47-4856-AAEC-FF5AD33A280D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9BFC2F-59F5-4975-9151-2D26BDB0223E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="15" windowWidth="15330" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="170">
   <si>
     <t>Case Reference</t>
   </si>
@@ -474,10 +474,67 @@
     <t>junbewespa@aol.com</t>
   </si>
   <si>
+    <t>Mrs June Westerby</t>
+  </si>
+  <si>
     <t>Ms Karen Block</t>
   </si>
   <si>
     <t xml:space="preserve"> 50 Malling Road SNODLAND ME6 5NA</t>
+  </si>
+  <si>
+    <t>AJL GH MD BLOCK B634.2</t>
+  </si>
+  <si>
+    <t>Savage Silk</t>
+  </si>
+  <si>
+    <t>0345 209 4711</t>
+  </si>
+  <si>
+    <t>derwent@savagesilk.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12-13 Lansdowne Terrace Gosforth NE3 1HN</t>
+  </si>
+  <si>
+    <t>Fresh Property Centre</t>
+  </si>
+  <si>
+    <t>0191 257 6823</t>
+  </si>
+  <si>
+    <t>dbooth@freshpropertycentre.co.uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 63 Church Way NORTH SHIELDS NE29 0AE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 100 North Road   Wallsend  North Tyneside  NE28 8RJ </t>
+  </si>
+  <si>
+    <t>CMP/0095/17</t>
+  </si>
+  <si>
+    <t>Mr Paul Hindhaugh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Newton on the Moor Morpeth NE65 9JU</t>
+  </si>
+  <si>
+    <t>paul@hindhaughhomes.co.uk</t>
+  </si>
+  <si>
+    <t>David Auld &amp; Co</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01670 505844 </t>
+  </si>
+  <si>
+    <t>david.bawn@david-auld.co.uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22A Newgate Street Morpeth NE61 1BA</t>
   </si>
 </sst>
 </file>
@@ -795,10 +852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK10"/>
+  <dimension ref="A1:AK11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1494,13 +1551,13 @@
         <v>148</v>
       </c>
       <c r="H10" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L10" t="s">
         <v>39</v>
@@ -1509,7 +1566,40 @@
         <v>59</v>
       </c>
       <c r="O10" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="R10" t="s">
+        <v>152</v>
+      </c>
+      <c r="S10" t="s">
+        <v>153</v>
+      </c>
+      <c r="T10" t="s">
+        <v>153</v>
+      </c>
+      <c r="U10" t="s">
+        <v>154</v>
+      </c>
+      <c r="V10" t="s">
+        <v>155</v>
+      </c>
+      <c r="W10" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>160</v>
       </c>
       <c r="AD10" t="s">
         <v>109</v>
@@ -1517,8 +1607,64 @@
       <c r="AF10" t="s">
         <v>40</v>
       </c>
+      <c r="AH10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>157</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>161</v>
+      </c>
       <c r="AK10">
         <v>480</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11">
+        <v>7970509876</v>
+      </c>
+      <c r="F11" t="s">
+        <v>165</v>
+      </c>
+      <c r="H11" t="s">
+        <v>59</v>
+      </c>
+      <c r="S11" t="s">
+        <v>166</v>
+      </c>
+      <c r="T11" t="s">
+        <v>166</v>
+      </c>
+      <c r="U11" t="s">
+        <v>167</v>
+      </c>
+      <c r="V11" t="s">
+        <v>168</v>
+      </c>
+      <c r="W11" t="s">
+        <v>169</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK11">
+        <v>2625</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Data_Extracted_Main.xlsx
+++ b/Data/Data_Extracted_Main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT_Knights_DataExtract_1.0\Knights\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9BFC2F-59F5-4975-9151-2D26BDB0223E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890368D4-006C-453A-86EB-1FD69242C631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="15" windowWidth="15330" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="172">
   <si>
     <t>Case Reference</t>
   </si>
@@ -535,6 +535,12 @@
   </si>
   <si>
     <t xml:space="preserve"> 22A Newgate Street Morpeth NE61 1BA</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Could not extract Property Details</t>
   </si>
 </sst>
 </file>
@@ -852,10 +858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK11"/>
+  <dimension ref="A1:AL11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AL7" sqref="AL7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -895,7 +901,7 @@
     <col min="33" max="33" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1007,8 +1013,11 @@
       <c r="AK1" t="s">
         <v>10</v>
       </c>
+      <c r="AL1" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1091,7 +1100,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -1153,7 +1162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>73</v>
       </c>
@@ -1194,7 +1203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -1226,7 +1235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>86</v>
       </c>
@@ -1309,7 +1318,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -1359,7 +1368,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -1448,7 +1457,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>131</v>
       </c>
@@ -1531,7 +1540,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>145</v>
       </c>
@@ -1620,7 +1629,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>162</v>
       </c>
@@ -1665,6 +1674,9 @@
       </c>
       <c r="AK11">
         <v>2625</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Data_Extracted_Main.xlsx
+++ b/Data/Data_Extracted_Main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT_Knights_DataExtract_1.0\Knights\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611EA5D9-907F-46B4-9430-B906DFFB9DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824E57F9-2E06-41D9-B4CC-5AE0BFF970E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="127">
   <si>
     <t>Clients Correspondinig Address</t>
   </si>
@@ -78,6 +78,111 @@
     <t>Seller Phone</t>
   </si>
   <si>
+    <t>Estate_Reference_Name</t>
+  </si>
+  <si>
+    <t>Estate_Trading_Name</t>
+  </si>
+  <si>
+    <t>Estate_LegalOwner_Name</t>
+  </si>
+  <si>
+    <t>Estate_Phone</t>
+  </si>
+  <si>
+    <t>Estate_Email</t>
+  </si>
+  <si>
+    <t>Estate_Address</t>
+  </si>
+  <si>
+    <t>Referral and Referral fee</t>
+  </si>
+  <si>
+    <t>Client(1) gender (Male/Female)</t>
+  </si>
+  <si>
+    <t>Clients(1) date of birth</t>
+  </si>
+  <si>
+    <t>Clients(2) date of birth</t>
+  </si>
+  <si>
+    <t>Client(2) gender (Male/Female)</t>
+  </si>
+  <si>
+    <t>Clients(1)Name</t>
+  </si>
+  <si>
+    <t>Clients(2)Name</t>
+  </si>
+  <si>
+    <t>Bot Name</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Start time</t>
+  </si>
+  <si>
+    <t>End Time</t>
+  </si>
+  <si>
+    <t>Triggered by</t>
+  </si>
+  <si>
+    <t>License</t>
+  </si>
+  <si>
+    <t>Server Ip</t>
+  </si>
+  <si>
+    <t>Ref no (unique id)</t>
+  </si>
+  <si>
+    <t>CASE Status</t>
+  </si>
+  <si>
+    <t>Comment(business exception)</t>
+  </si>
+  <si>
+    <t>BOT RUN Status</t>
+  </si>
+  <si>
+    <t>Remark(System Exception)</t>
+  </si>
+  <si>
+    <t>TitleNumber</t>
+  </si>
+  <si>
+    <t>Purchase Price or Sale Price</t>
+  </si>
+  <si>
+    <t>Lender_Reference_Name</t>
+  </si>
+  <si>
+    <t>Lender_Trading_Name</t>
+  </si>
+  <si>
+    <t>Lender_LegalOwner_Name</t>
+  </si>
+  <si>
+    <t>Lender_Phone</t>
+  </si>
+  <si>
+    <t>Lender_Email</t>
+  </si>
+  <si>
+    <t>Lender_Address</t>
+  </si>
+  <si>
+    <t>Mortgage Aadvance</t>
+  </si>
+  <si>
     <t>SellerSolicitor_Reference_Name</t>
   </si>
   <si>
@@ -96,106 +201,211 @@
     <t>SellerSolicitor_Address</t>
   </si>
   <si>
-    <t>Estate_Reference_Name</t>
-  </si>
-  <si>
-    <t>Estate_Trading_Name</t>
-  </si>
-  <si>
-    <t>Estate_LegalOwner_Name</t>
-  </si>
-  <si>
-    <t>Estate_Phone</t>
-  </si>
-  <si>
-    <t>Estate_Email</t>
-  </si>
-  <si>
-    <t>Estate_Address</t>
-  </si>
-  <si>
-    <t>Referral and Referral fee</t>
-  </si>
-  <si>
-    <t>Client(1) gender (Male/Female)</t>
-  </si>
-  <si>
-    <t>Clients(1) date of birth</t>
-  </si>
-  <si>
-    <t>Clients(2) date of birth</t>
-  </si>
-  <si>
-    <t>Client(2) gender (Male/Female)</t>
-  </si>
-  <si>
-    <t>Clients(1)Name</t>
-  </si>
-  <si>
-    <t>Clients(2)Name</t>
-  </si>
-  <si>
-    <t>Bot Name</t>
-  </si>
-  <si>
-    <t>Process</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Start time</t>
-  </si>
-  <si>
-    <t>End Time</t>
-  </si>
-  <si>
-    <t>Triggered by</t>
-  </si>
-  <si>
-    <t>License</t>
-  </si>
-  <si>
-    <t>Server Ip</t>
-  </si>
-  <si>
-    <t>Ref no (unique id)</t>
-  </si>
-  <si>
-    <t>CASE Status</t>
-  </si>
-  <si>
-    <t>Comment(business exception)</t>
-  </si>
-  <si>
-    <t>BOT RUN Status</t>
-  </si>
-  <si>
-    <t>Remark(System Exception)</t>
-  </si>
-  <si>
-    <t>TitleNumber</t>
-  </si>
-  <si>
-    <t>Purchase Price or Sale Price</t>
-  </si>
-  <si>
-    <t>Lender_Reference_Name</t>
-  </si>
-  <si>
-    <t>Lender_Trading_Name</t>
-  </si>
-  <si>
-    <t>Lender_LegalOwner_Name</t>
-  </si>
-  <si>
-    <t>Lender_Phone</t>
-  </si>
-  <si>
-    <t>Lender_Email</t>
-  </si>
-  <si>
-    <t>Lender_Address</t>
+    <t>CON/18536/23</t>
+  </si>
+  <si>
+    <t>Knights Extraction</t>
+  </si>
+  <si>
+    <t>Knights_Data_Extraction</t>
+  </si>
+  <si>
+    <t>15/06/2023</t>
+  </si>
+  <si>
+    <t>Operations</t>
+  </si>
+  <si>
+    <t>Community</t>
+  </si>
+  <si>
+    <t>192.168.0.76</t>
+  </si>
+  <si>
+    <t>£220,000.00</t>
+  </si>
+  <si>
+    <t>Ms Jessica Ann Horsburgh</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11 Kirkland Chase Newcastle upon Tyne NE5 4EZ</t>
+  </si>
+  <si>
+    <t>Freehold</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11 Kirkland Chase  Newcastle Upon Tyne Tyne and Wear NE5 4EZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mark Lynn </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Scott Oakley </t>
+  </si>
+  <si>
+    <t>Mr Keith Anthony Moorton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apartment 2303  Al Hubob Street Dubai Marina </t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>keithmoorton@gmail.com</t>
+  </si>
+  <si>
+    <t>Mrs Penelope Dawn Moorton</t>
+  </si>
+  <si>
+    <t>01670 334410</t>
+  </si>
+  <si>
+    <t>jane.fiddes@yellowconveyancing.co.uk</t>
+  </si>
+  <si>
+    <t>Unit 35   Cramlington NE23 7BF</t>
+  </si>
+  <si>
+    <t>WalkersXchange Estate Agents</t>
+  </si>
+  <si>
+    <t>0191 440 8173</t>
+  </si>
+  <si>
+    <t>sales@walkersxchange.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2a Gateshead Road Newcastle upon Tyne NE16 5LG</t>
+  </si>
+  <si>
+    <t>John Charcol</t>
+  </si>
+  <si>
+    <t>robert.orr@johncharcol.co.uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30 Cloth Market Newcastle upon Tyne NE1 1EE</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>CON/18537/23</t>
+  </si>
+  <si>
+    <t>£286,000.00</t>
+  </si>
+  <si>
+    <t>Mr Barry Oliver</t>
+  </si>
+  <si>
+    <t>Mrs Gail Oliver</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 46 Derwentdale Gardens Newcastle upon Tyne NE7 7QN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 46 Derwentdale Gardens  Newcastle upon Tyne  NE7 7QN</t>
+  </si>
+  <si>
+    <t>Mr Kevin Gareth Taylor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12 Osborne Avenue Newcastle upon Tyne NE2 1JQ</t>
+  </si>
+  <si>
+    <t>gareth.taylor87@outlook.com</t>
+  </si>
+  <si>
+    <t>Miss Rhiannon Jane De Ivey</t>
+  </si>
+  <si>
+    <t>Taylor Rose MW</t>
+  </si>
+  <si>
+    <t>Paul.Illes@taylor-rose.co.uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  St John's Street Northamptonshire PE1 5DD</t>
+  </si>
+  <si>
+    <t>Jack Harrison Estates</t>
+  </si>
+  <si>
+    <t>0191 284 6676</t>
+  </si>
+  <si>
+    <t>rebecca@jackharrisonestates.co.uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 162 Newton Road NEWCASTLE UPON TYNE NE7 7HP</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>CON/18543/23</t>
+  </si>
+  <si>
+    <t>£320,500.00</t>
+  </si>
+  <si>
+    <t>Miss Siobhan Marie McGrath</t>
+  </si>
+  <si>
+    <t>Mr Dirk Rudiger Demuth</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11 Hunter's Road Newcastle upon Tyne NE3 1SD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11 Hunters Road Gosforth Newcastle Upon Tyne  Tyne and Wear  NE3 1SD</t>
+  </si>
+  <si>
+    <t>Dr Marju Kaps</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7 Howgate Road Cambridge CB4 3XL</t>
+  </si>
+  <si>
+    <t>i.b.magdau@gmail.com</t>
+  </si>
+  <si>
+    <t>Dr Ioan-Bogdan Magdau</t>
+  </si>
+  <si>
+    <t>rstuart@mincoffs.co.uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5-6 Osborne Terrace Newcastle Upon Tyne NE2 1SQ</t>
+  </si>
+  <si>
+    <t>Bailey &amp; Co</t>
+  </si>
+  <si>
+    <t>0191 2812305</t>
+  </si>
+  <si>
+    <t>info@bailey-and.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 89 St. Georges Terrace NEWCASTLE UPON TYNE NE2 2DN</t>
+  </si>
+  <si>
+    <t>CON/18584/23</t>
+  </si>
+  <si>
+    <t>£285,000.00</t>
+  </si>
+  <si>
+    <t>CRN_Number</t>
   </si>
 </sst>
 </file>
@@ -530,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BE2"/>
+  <dimension ref="A1:BH14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AK1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="BH1" sqref="BH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,60 +781,62 @@
     <col min="31" max="31" width="26" customWidth="1"/>
     <col min="32" max="32" width="33.42578125" customWidth="1"/>
     <col min="33" max="33" width="25" customWidth="1"/>
-    <col min="36" max="36" width="13.42578125" customWidth="1"/>
-    <col min="37" max="37" width="15" customWidth="1"/>
-    <col min="38" max="38" width="19.42578125" customWidth="1"/>
+    <col min="34" max="34" width="36.140625" customWidth="1"/>
+    <col min="35" max="35" width="27.140625" customWidth="1"/>
+    <col min="36" max="36" width="24.28515625" customWidth="1"/>
+    <col min="37" max="37" width="22.42578125" customWidth="1"/>
+    <col min="38" max="38" width="21.7109375" customWidth="1"/>
     <col min="51" max="51" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="N1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="O1" t="s">
         <v>0</v>
       </c>
       <c r="P1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="Q1" t="s">
         <v>6</v>
@@ -633,16 +845,16 @@
         <v>7</v>
       </c>
       <c r="S1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="U1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="V1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="W1" t="s">
         <v>10</v>
@@ -666,40 +878,40 @@
         <v>16</v>
       </c>
       <c r="AD1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>17</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AK1" t="s">
         <v>18</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AL1" t="s">
         <v>19</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AM1" t="s">
         <v>20</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AN1" t="s">
         <v>21</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AO1" t="s">
         <v>22</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>28</v>
       </c>
       <c r="AP1" t="s">
         <v>2</v>
@@ -717,7 +929,7 @@
         <v>8</v>
       </c>
       <c r="AU1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AV1" t="s">
         <v>1</v>
@@ -726,32 +938,476 @@
         <v>9</v>
       </c>
       <c r="AX1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>47</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>48</v>
+      </c>
+      <c r="BD1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BE1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BF1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>56</v>
+      <c r="BH1" t="s">
+        <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="D2" s="2"/>
+    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.61388888888888882</v>
+      </c>
+      <c r="F2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>89</v>
+      </c>
+      <c r="N2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O2" t="s">
+        <v>75</v>
+      </c>
+      <c r="P2" t="s">
+        <v>76</v>
+      </c>
+      <c r="R2" t="s">
+        <v>77</v>
+      </c>
+      <c r="T2" t="s">
+        <v>78</v>
+      </c>
+      <c r="U2" t="s">
+        <v>67</v>
+      </c>
+      <c r="W2" t="s">
+        <v>66</v>
+      </c>
+      <c r="X2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW2">
+        <v>1000</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>86</v>
+      </c>
+      <c r="BC2">
+        <v>2045191476</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="F3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J3" t="s">
+        <v>89</v>
+      </c>
+      <c r="N3" t="s">
+        <v>96</v>
+      </c>
+      <c r="O3" t="s">
+        <v>97</v>
+      </c>
+      <c r="P3" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q3">
+        <v>7875204142</v>
+      </c>
+      <c r="R3" t="s">
+        <v>98</v>
+      </c>
+      <c r="T3" t="s">
+        <v>99</v>
+      </c>
+      <c r="U3" t="s">
+        <v>67</v>
+      </c>
+      <c r="W3" t="s">
+        <v>92</v>
+      </c>
+      <c r="X3" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW3">
+        <v>1050</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>107</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>107</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>107</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>107</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J4" t="s">
+        <v>89</v>
+      </c>
+      <c r="N4" t="s">
+        <v>114</v>
+      </c>
+      <c r="O4" t="s">
+        <v>115</v>
+      </c>
+      <c r="P4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q4">
+        <v>7754615813</v>
+      </c>
+      <c r="R4" t="s">
+        <v>116</v>
+      </c>
+      <c r="T4" t="s">
+        <v>117</v>
+      </c>
+      <c r="U4" t="s">
+        <v>76</v>
+      </c>
+      <c r="W4" t="s">
+        <v>110</v>
+      </c>
+      <c r="X4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG4">
+        <v>1912127710</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AW4">
+        <v>1200</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>107</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>107</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>107</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>107</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Data_Extracted_Main.xlsx
+++ b/Data/Data_Extracted_Main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT_Knights_DataExtract_1.0\Knights\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824E57F9-2E06-41D9-B4CC-5AE0BFF970E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C7D241-A99D-4B92-B679-17274B6B9447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8250" yWindow="2160" windowWidth="15330" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="99">
   <si>
     <t>Clients Correspondinig Address</t>
   </si>
@@ -201,7 +201,13 @@
     <t>SellerSolicitor_Address</t>
   </si>
   <si>
-    <t>CON/18536/23</t>
+    <t>CRN_Number</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>CON/18737/23</t>
   </si>
   <si>
     <t>Knights Extraction</t>
@@ -210,7 +216,7 @@
     <t>Knights_Data_Extraction</t>
   </si>
   <si>
-    <t>15/06/2023</t>
+    <t>19/06/2023</t>
   </si>
   <si>
     <t>Operations</t>
@@ -222,190 +228,100 @@
     <t>192.168.0.76</t>
   </si>
   <si>
-    <t>£220,000.00</t>
-  </si>
-  <si>
-    <t>Ms Jessica Ann Horsburgh</t>
+    <t>£250,000.00</t>
+  </si>
+  <si>
+    <t>Incomplete</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10 Tudor Avenue  North Shields Tyne &amp; Wear NE29 0RY</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mark Lynn </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rukhsanah Haroon </t>
+  </si>
+  <si>
+    <t>Ms Christine Swinney</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13 Lovaine Terrace North Shields NE29 0HJ</t>
   </si>
   <si>
     <t>Female</t>
   </si>
   <si>
+    <t>chrisswinney1958@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t xml:space="preserve"> 11 Kirkland Chase Newcastle upon Tyne NE5 4EZ</t>
-  </si>
-  <si>
-    <t>Freehold</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 11 Kirkland Chase  Newcastle Upon Tyne Tyne and Wear NE5 4EZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mark Lynn </t>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>CON/18739/23</t>
+  </si>
+  <si>
+    <t>£655,000.00</t>
+  </si>
+  <si>
+    <t>Mrs Kyle Elizabeth Ann Blane</t>
+  </si>
+  <si>
+    <t>Mr Martin Peter Blane</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17 Collingwood Crescent Ponteland Newcastle upon Tyne  NE20 9DZ</t>
   </si>
   <si>
     <t xml:space="preserve"> Scott Oakley </t>
   </si>
   <si>
-    <t>Mr Keith Anthony Moorton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apartment 2303  Al Hubob Street Dubai Marina </t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>keithmoorton@gmail.com</t>
-  </si>
-  <si>
-    <t>Mrs Penelope Dawn Moorton</t>
-  </si>
-  <si>
-    <t>01670 334410</t>
-  </si>
-  <si>
-    <t>jane.fiddes@yellowconveyancing.co.uk</t>
-  </si>
-  <si>
-    <t>Unit 35   Cramlington NE23 7BF</t>
-  </si>
-  <si>
-    <t>WalkersXchange Estate Agents</t>
-  </si>
-  <si>
-    <t>0191 440 8173</t>
-  </si>
-  <si>
-    <t>sales@walkersxchange.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2a Gateshead Road Newcastle upon Tyne NE16 5LG</t>
-  </si>
-  <si>
-    <t>John Charcol</t>
-  </si>
-  <si>
-    <t>robert.orr@johncharcol.co.uk</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 30 Cloth Market Newcastle upon Tyne NE1 1EE</t>
+    <t>Mr Winston Chan</t>
+  </si>
+  <si>
+    <t>Block B  Atkinson Street Leeds LS10 1EU</t>
+  </si>
+  <si>
+    <t>winston_chan@hotmail.com</t>
+  </si>
+  <si>
+    <t>Adie Pepperdine Ltd</t>
+  </si>
+  <si>
+    <t>louise.pepperdine@adie-pepperdine.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3 The Landings Lincoln LN1 2TU</t>
   </si>
   <si>
     <t>Completed</t>
   </si>
   <si>
-    <t>CON/18537/23</t>
-  </si>
-  <si>
-    <t>£286,000.00</t>
-  </si>
-  <si>
-    <t>Mr Barry Oliver</t>
-  </si>
-  <si>
-    <t>Mrs Gail Oliver</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 46 Derwentdale Gardens Newcastle upon Tyne NE7 7QN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 46 Derwentdale Gardens  Newcastle upon Tyne  NE7 7QN</t>
-  </si>
-  <si>
-    <t>Mr Kevin Gareth Taylor</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12 Osborne Avenue Newcastle upon Tyne NE2 1JQ</t>
-  </si>
-  <si>
-    <t>gareth.taylor87@outlook.com</t>
-  </si>
-  <si>
-    <t>Miss Rhiannon Jane De Ivey</t>
-  </si>
-  <si>
-    <t>Taylor Rose MW</t>
-  </si>
-  <si>
-    <t>Paul.Illes@taylor-rose.co.uk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  St John's Street Northamptonshire PE1 5DD</t>
-  </si>
-  <si>
-    <t>Jack Harrison Estates</t>
-  </si>
-  <si>
-    <t>0191 284 6676</t>
-  </si>
-  <si>
-    <t>rebecca@jackharrisonestates.co.uk</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 162 Newton Road NEWCASTLE UPON TYNE NE7 7HP</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>CON/18543/23</t>
-  </si>
-  <si>
-    <t>£320,500.00</t>
-  </si>
-  <si>
-    <t>Miss Siobhan Marie McGrath</t>
-  </si>
-  <si>
-    <t>Mr Dirk Rudiger Demuth</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 11 Hunter's Road Newcastle upon Tyne NE3 1SD</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 11 Hunters Road Gosforth Newcastle Upon Tyne  Tyne and Wear  NE3 1SD</t>
-  </si>
-  <si>
-    <t>Dr Marju Kaps</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7 Howgate Road Cambridge CB4 3XL</t>
-  </si>
-  <si>
-    <t>i.b.magdau@gmail.com</t>
-  </si>
-  <si>
-    <t>Dr Ioan-Bogdan Magdau</t>
-  </si>
-  <si>
-    <t>rstuart@mincoffs.co.uk</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5-6 Osborne Terrace Newcastle Upon Tyne NE2 1SQ</t>
-  </si>
-  <si>
-    <t>Bailey &amp; Co</t>
-  </si>
-  <si>
-    <t>0191 2812305</t>
-  </si>
-  <si>
-    <t>info@bailey-and.co</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 89 St. Georges Terrace NEWCASTLE UPON TYNE NE2 2DN</t>
-  </si>
-  <si>
-    <t>CON/18584/23</t>
-  </si>
-  <si>
-    <t>£285,000.00</t>
-  </si>
-  <si>
-    <t>CRN_Number</t>
+    <t>CON/18742/23</t>
+  </si>
+  <si>
+    <t>£450,000.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7 Mellanby Close Somerset   BA16 0NX</t>
+  </si>
+  <si>
+    <t>Mr Weijia Chen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 37 Grosvenor Road Newcastle upon Tyne NE2 2RL</t>
+  </si>
+  <si>
+    <t>Mrs Xingchen Meng</t>
   </si>
 </sst>
 </file>
@@ -742,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BH14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BH1" sqref="BH1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:BD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -964,414 +880,382 @@
       <c r="BF1" t="s">
         <v>51</v>
       </c>
+      <c r="BG1" t="s">
+        <v>59</v>
+      </c>
       <c r="BH1" t="s">
-        <v>126</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.78333333333333333</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.78749999999999998</v>
+      </c>
+      <c r="F2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" t="s">
         <v>60</v>
       </c>
-      <c r="C2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.61388888888888882</v>
-      </c>
-      <c r="F2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I2" t="s">
-        <v>58</v>
-      </c>
       <c r="J2" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="N2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P2" t="s">
         <v>74</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2">
+        <v>7930161362</v>
+      </c>
+      <c r="R2" t="s">
         <v>75</v>
       </c>
-      <c r="P2" t="s">
+      <c r="T2" t="s">
         <v>76</v>
       </c>
-      <c r="R2" t="s">
-        <v>77</v>
-      </c>
-      <c r="T2" t="s">
-        <v>78</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="AD2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW2">
+        <v>1200</v>
+      </c>
+      <c r="AY2" t="s">
         <v>67</v>
       </c>
-      <c r="W2" t="s">
-        <v>66</v>
-      </c>
-      <c r="X2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AW2">
-        <v>1000</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>65</v>
+      <c r="AZ2" t="s">
+        <v>77</v>
       </c>
       <c r="BA2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="BB2" t="s">
-        <v>86</v>
-      </c>
-      <c r="BC2">
-        <v>2045191476</v>
+        <v>77</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>77</v>
       </c>
       <c r="BD2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="BE2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D3" s="2">
-        <v>0.61458333333333337</v>
+        <v>0.78819444444444453</v>
       </c>
       <c r="E3" s="2">
-        <v>0.6166666666666667</v>
+        <v>0.7895833333333333</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J3" t="s">
+        <v>92</v>
+      </c>
+      <c r="N3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O3" t="s">
+        <v>87</v>
+      </c>
+      <c r="P3" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q3">
+        <v>7506268064</v>
+      </c>
+      <c r="R3" t="s">
+        <v>88</v>
+      </c>
+      <c r="T3" t="s">
+        <v>76</v>
+      </c>
+      <c r="W3" t="s">
+        <v>80</v>
+      </c>
+      <c r="X3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG3">
+        <v>1522577088</v>
+      </c>
+      <c r="AH3" t="s">
         <v>90</v>
       </c>
-      <c r="J3" t="s">
-        <v>89</v>
-      </c>
-      <c r="N3" t="s">
-        <v>96</v>
-      </c>
-      <c r="O3" t="s">
-        <v>97</v>
-      </c>
-      <c r="P3" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q3">
-        <v>7875204142</v>
-      </c>
-      <c r="R3" t="s">
-        <v>98</v>
-      </c>
-      <c r="T3" t="s">
-        <v>99</v>
-      </c>
-      <c r="U3" t="s">
-        <v>67</v>
-      </c>
-      <c r="W3" t="s">
-        <v>92</v>
-      </c>
-      <c r="X3" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>101</v>
-      </c>
       <c r="AI3" t="s">
-        <v>102</v>
+        <v>91</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>77</v>
       </c>
       <c r="AK3" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="AL3" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="AM3" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="AN3" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="AO3" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="AP3" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="AR3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AV3" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="AW3">
-        <v>1050</v>
+        <v>1500</v>
       </c>
       <c r="AY3" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AZ3" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="BA3" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="BB3" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="BC3" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="BD3" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="BE3" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D4" s="2">
-        <v>0.6166666666666667</v>
+        <v>0.7895833333333333</v>
       </c>
       <c r="E4" s="2">
-        <v>0.61805555555555558</v>
+        <v>0.79305555555555562</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I4" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="J4" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="N4" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="O4" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="P4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Q4">
-        <v>7754615813</v>
-      </c>
-      <c r="R4" t="s">
-        <v>116</v>
+        <v>7506770515</v>
       </c>
       <c r="T4" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="U4" t="s">
-        <v>76</v>
-      </c>
-      <c r="W4" t="s">
-        <v>110</v>
-      </c>
-      <c r="X4" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG4">
-        <v>1912127710</v>
+        <v>74</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>77</v>
       </c>
       <c r="AH4" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="AI4" t="s">
-        <v>119</v>
+        <v>77</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>77</v>
       </c>
       <c r="AK4" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="AL4" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="AM4" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="AN4" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="AO4" t="s">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="AP4" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="AR4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AT4" t="s">
         <v>70</v>
       </c>
       <c r="AV4" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="AW4">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="AY4" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="AZ4" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="BA4" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="BB4" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="BC4" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="BD4" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="BE4" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.61805555555555558</v>
-      </c>
+      <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" t="s">
-        <v>64</v>
-      </c>
-      <c r="I5" t="s">
-        <v>124</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>125</v>
-      </c>
     </row>
     <row r="6" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D6" s="2"/>
